--- a/data/trans_orig/P16A_2_R3-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>105516</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87006</v>
+        <v>87929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>125372</v>
+        <v>125057</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1916316443728722</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1580150700866727</v>
+        <v>0.159692027467042</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2276934636304196</v>
+        <v>0.2271205493942306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>218</v>
@@ -762,19 +762,19 @@
         <v>148784</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130935</v>
+        <v>131316</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166262</v>
+        <v>165292</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3046291673085085</v>
+        <v>0.3046291673085084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2680838168657809</v>
+        <v>0.2688635481786334</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3404141052038954</v>
+        <v>0.3384278643418297</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>325</v>
@@ -783,19 +783,19 @@
         <v>254300</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>228986</v>
+        <v>228894</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>279989</v>
+        <v>280878</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2447477866534381</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2203846968939601</v>
+        <v>0.2202961615550829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.26947179155767</v>
+        <v>0.270327542378153</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>445102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>425246</v>
+        <v>425561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>463612</v>
+        <v>462689</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8083683556271279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7723065363695805</v>
+        <v>0.7728794506057695</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8419849299133274</v>
+        <v>0.8403079725329579</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>468</v>
@@ -833,19 +833,19 @@
         <v>339627</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322149</v>
+        <v>323119</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>357476</v>
+        <v>357095</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6953708326914916</v>
+        <v>0.6953708326914915</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6595858947961043</v>
+        <v>0.6615721356581703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.731916183134219</v>
+        <v>0.7311364518213664</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>915</v>
@@ -854,19 +854,19 @@
         <v>784729</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>759040</v>
+        <v>758151</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>810043</v>
+        <v>810135</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.755252213346562</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7305282084423299</v>
+        <v>0.729672457621847</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.77961530310604</v>
+        <v>0.7797038384449171</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>94294</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77707</v>
+        <v>76764</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113652</v>
+        <v>111667</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1951392904452537</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.160814133314327</v>
+        <v>0.1588622298895566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2352007976802087</v>
+        <v>0.2310932865036026</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -979,19 +979,19 @@
         <v>133481</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118127</v>
+        <v>118206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>148688</v>
+        <v>150897</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3154513959329903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2791666084162195</v>
+        <v>0.2793520771821821</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.351389237013447</v>
+        <v>0.3566097340545479</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>305</v>
@@ -1000,19 +1000,19 @@
         <v>227775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>203267</v>
+        <v>204916</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>251760</v>
+        <v>255060</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2513084599681862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2242689898332139</v>
+        <v>0.2260881278255722</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2777714902056556</v>
+        <v>0.2814128297040831</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>388918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369560</v>
+        <v>371545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>405505</v>
+        <v>406448</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8048607095547463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7647992023197915</v>
+        <v>0.7689067134963974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.839185866685673</v>
+        <v>0.8411377701104431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>387</v>
@@ -1050,19 +1050,19 @@
         <v>289662</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>274455</v>
+        <v>272246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>305016</v>
+        <v>304937</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6845486040670096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6486107629865531</v>
+        <v>0.6433902659454523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7208333915837806</v>
+        <v>0.720647922817818</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>766</v>
@@ -1071,19 +1071,19 @@
         <v>678580</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>654595</v>
+        <v>651295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>703088</v>
+        <v>701439</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7486915400318139</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7222285097943446</v>
+        <v>0.718587170295917</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7757310101667864</v>
+        <v>0.773911872174428</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>127926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108083</v>
+        <v>110798</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>147463</v>
+        <v>150285</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2712522105529465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.229177695817205</v>
+        <v>0.2349352330620429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3126786562205628</v>
+        <v>0.3186623553307985</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -1196,19 +1196,19 @@
         <v>85711</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73903</v>
+        <v>74433</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96604</v>
+        <v>97827</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4571325731488002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3941581235940282</v>
+        <v>0.3969822146793428</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5152294485243236</v>
+        <v>0.5217530194303783</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>271</v>
@@ -1217,19 +1217,19 @@
         <v>213637</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>190296</v>
+        <v>190651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236120</v>
+        <v>238701</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3241297517683417</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2887169407227042</v>
+        <v>0.2892553575052686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3582406336228998</v>
+        <v>0.3621567949687566</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>343686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>324149</v>
+        <v>321327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>363529</v>
+        <v>360814</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7287477894470535</v>
+        <v>0.7287477894470533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6873213437794371</v>
+        <v>0.6813376446692013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7708223041827952</v>
+        <v>0.7650647669379569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -1267,19 +1267,19 @@
         <v>101786</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90893</v>
+        <v>89670</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113594</v>
+        <v>113064</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5428674268511997</v>
+        <v>0.5428674268511998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4847705514756765</v>
+        <v>0.4782469805696217</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6058418764059721</v>
+        <v>0.6030177853206573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>506</v>
@@ -1288,19 +1288,19 @@
         <v>445472</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>422989</v>
+        <v>420408</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>468813</v>
+        <v>468458</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6758702482316583</v>
+        <v>0.6758702482316582</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6417593663771003</v>
+        <v>0.6378432050312435</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.711283059277296</v>
+        <v>0.7107446424947312</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>316250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>285881</v>
+        <v>286164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>349203</v>
+        <v>350154</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2794114555207549</v>
+        <v>0.2794114555207548</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2525801206182521</v>
+        <v>0.2528297805231748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3085257108015899</v>
+        <v>0.3093660439095186</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>514</v>
@@ -1413,19 +1413,19 @@
         <v>332732</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>307157</v>
+        <v>307941</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>356863</v>
+        <v>357884</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3863538660804935</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3566569163866244</v>
+        <v>0.3575672591370433</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4143736103580572</v>
+        <v>0.4155595141426899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>863</v>
@@ -1434,19 +1434,19 @@
         <v>648982</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>610026</v>
+        <v>610237</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>691749</v>
+        <v>691315</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.325621952468872</v>
+        <v>0.3256219524688722</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3060757869293922</v>
+        <v>0.3061819203861889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3470797785617035</v>
+        <v>0.3468619311040961</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>815593</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>782640</v>
+        <v>781689</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>845962</v>
+        <v>845679</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7205885444792451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6914742891984103</v>
+        <v>0.6906339560904814</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.747419879381748</v>
+        <v>0.7471702194768254</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>716</v>
@@ -1484,19 +1484,19 @@
         <v>528479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>504348</v>
+        <v>503327</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>554054</v>
+        <v>553270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6136461339195064</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5856263896419422</v>
+        <v>0.58444048585731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6433430836133753</v>
+        <v>0.6424327408629567</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1485</v>
@@ -1505,19 +1505,19 @@
         <v>1344072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1301305</v>
+        <v>1301739</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1383028</v>
+        <v>1382817</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6743780475311278</v>
+        <v>0.6743780475311281</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6529202214382964</v>
+        <v>0.653138068895904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6939242130706076</v>
+        <v>0.6938180796138111</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>142753</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122242</v>
+        <v>122979</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>166523</v>
+        <v>167287</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2513420971567979</v>
+        <v>0.2513420971567978</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2152283167763333</v>
+        <v>0.2165268048871447</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2931930268636064</v>
+        <v>0.2945378116434192</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>661</v>
@@ -1630,19 +1630,19 @@
         <v>394012</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>367132</v>
+        <v>370461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>417389</v>
+        <v>417674</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4742277273594119</v>
+        <v>0.4742277273594118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4418749579454833</v>
+        <v>0.4458818409142467</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5023632751853793</v>
+        <v>0.5027067782010141</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>811</v>
@@ -1651,19 +1651,19 @@
         <v>536765</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>504779</v>
+        <v>505379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>571026</v>
+        <v>571122</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3837289487943711</v>
+        <v>0.383728948794371</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3608624620339484</v>
+        <v>0.3612909048458927</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4082216911381699</v>
+        <v>0.4082904779826892</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>425211</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>401441</v>
+        <v>400677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>445722</v>
+        <v>444985</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7486579028432023</v>
+        <v>0.748657902843202</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7068069731363936</v>
+        <v>0.7054621883565806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.784771683223667</v>
+        <v>0.7834731951128552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>629</v>
@@ -1701,19 +1701,19 @@
         <v>436838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>413461</v>
+        <v>413176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>463718</v>
+        <v>460389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5257722726405881</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4976367248146207</v>
+        <v>0.4972932217989863</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5581250420545165</v>
+        <v>0.5541181590857546</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1026</v>
@@ -1722,19 +1722,19 @@
         <v>862049</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>827788</v>
+        <v>827692</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>894035</v>
+        <v>893435</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.616271051205629</v>
+        <v>0.6162710512056289</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5917783088618301</v>
+        <v>0.5917095220173111</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6391375379660515</v>
+        <v>0.6387090951541073</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>26333</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13838</v>
+        <v>14541</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43849</v>
+        <v>43039</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1110028362260767</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05833251019492934</v>
+        <v>0.06129506004335552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1848373198526357</v>
+        <v>0.1814246816081419</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>523</v>
@@ -1847,19 +1847,19 @@
         <v>314728</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>288887</v>
+        <v>290193</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>340604</v>
+        <v>342131</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3727758357173759</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3421694812427847</v>
+        <v>0.3437163824548032</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.403424627349574</v>
+        <v>0.4052333160052928</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>539</v>
@@ -1868,19 +1868,19 @@
         <v>341061</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>311587</v>
+        <v>311510</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>372497</v>
+        <v>375440</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3153562170912345</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.288104283249233</v>
+        <v>0.2880330078283373</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3444231438089598</v>
+        <v>0.3471449847659071</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>210895</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>193379</v>
+        <v>194189</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223390</v>
+        <v>222687</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8889971637739233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8151626801473641</v>
+        <v>0.8185753183918582</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9416674898050706</v>
+        <v>0.9387049399566446</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>636</v>
@@ -1918,19 +1918,19 @@
         <v>529553</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>503677</v>
+        <v>502150</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>555394</v>
+        <v>554088</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.627224164282624</v>
+        <v>0.6272241642826241</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.596575372650426</v>
+        <v>0.594766683994707</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6578305187572147</v>
+        <v>0.6562836175451967</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>732</v>
@@ -1939,19 +1939,19 @@
         <v>740448</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>709012</v>
+        <v>706069</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>769922</v>
+        <v>769999</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6846437829087657</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6555768561910403</v>
+        <v>0.6528550152340928</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7118957167507671</v>
+        <v>0.7119669921716624</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>813071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>762289</v>
+        <v>761637</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>866461</v>
+        <v>869234</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2361879030968483</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2214363965205167</v>
+        <v>0.2212467438780089</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.251697160173166</v>
+        <v>0.252502452390202</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2254</v>
@@ -2064,19 +2064,19 @@
         <v>1409448</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1355233</v>
+        <v>1358432</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1458070</v>
+        <v>1455182</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3877017405258842</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3727885193432884</v>
+        <v>0.3736684279079115</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4010763747998479</v>
+        <v>0.4002818426413279</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3114</v>
@@ -2085,19 +2085,19 @@
         <v>2222519</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2142553</v>
+        <v>2147600</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2294294</v>
+        <v>2294842</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3140096821610522</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3027115308596999</v>
+        <v>0.3034246558780399</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3241504012603385</v>
+        <v>0.3242278473852865</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2629405</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2576015</v>
+        <v>2573242</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2680187</v>
+        <v>2680839</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7638120969031518</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7483028398268339</v>
+        <v>0.7474975476097979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7785636034794834</v>
+        <v>0.778753256121991</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2990</v>
@@ -2135,19 +2135,19 @@
         <v>2225945</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2177323</v>
+        <v>2180211</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2280160</v>
+        <v>2276961</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.612298259474116</v>
+        <v>0.6122982594741159</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5989236252001522</v>
+        <v>0.5997181573586721</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6272114806567116</v>
+        <v>0.6263315720920885</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5430</v>
@@ -2156,19 +2156,19 @@
         <v>4855350</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4783575</v>
+        <v>4783027</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4935316</v>
+        <v>4930269</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6859903178389478</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6758495987396613</v>
+        <v>0.6757721526147134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6972884691402996</v>
+        <v>0.69657534412196</v>
       </c>
     </row>
     <row r="24">
